--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
@@ -7753,239 +7753,239 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>10</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>7</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>12</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>13</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13086,312 +13086,312 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E245" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F245" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F246" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E247" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F249" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
@@ -7753,7 +7753,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -7777,215 +7777,215 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13086,312 +13086,312 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>13</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
+      <c r="D244" t="n">
         <v>5</v>
       </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>13</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>6</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F245" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>13</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>7</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F246" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>13</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>8</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>13</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>9</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>13</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>10</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
